--- a/q12/q12扩张概率.xlsx
+++ b/q12/q12扩张概率.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A161"/>
+  <dimension ref="A1:A160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,802 +442,797 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0198999997228384</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.008999999612569809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9487000107765198</v>
+        <v>0.5086000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01070000045001507</v>
+        <v>0.5086000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9869999885559082</v>
+        <v>0.5293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01520000025629997</v>
+        <v>0.5293</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01400000043213367</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9743000268936157</v>
+        <v>0.9983</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9968000054359436</v>
+        <v>0.9945000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.03950000181794167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0255999993532896</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.01530000008642673</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9595999717712402</v>
+        <v>0.9906</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.02260000072419643</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9833999872207642</v>
+        <v>0.9867</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.01740000024437904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9927999973297119</v>
+        <v>0.9918</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9868000149726868</v>
+        <v>0.9885</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.01569999940693378</v>
+        <v>0.0519</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.03860000148415565</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.009200000204145908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.03640000149607658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.03359999880194664</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.01059999968856573</v>
+        <v>0.0181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9868999719619751</v>
+        <v>0.9893</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.01480000000447035</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.954800009727478</v>
+        <v>0.9839</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.001000000047497451</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.009499999694526196</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.03299999982118607</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.006500000134110451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9869999885559082</v>
+        <v>0.9996</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9574000239372253</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.003299999982118607</v>
+        <v>0.008200000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.007699999958276749</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9753000140190125</v>
+        <v>0.9727</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9922000169754028</v>
+        <v>0.9997</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9653000235557556</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9986000061035156</v>
+        <v>0.9898</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.07400000095367432</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.02490000054240227</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.004699999932199717</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9901000261306763</v>
+        <v>0.9816</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.01119999960064888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.01999999955296516</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.002199999988079071</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9631999731063843</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9799000024795532</v>
+        <v>0.9943</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.004000000189989805</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.0210999995470047</v>
+        <v>0.0409</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.0130000002682209</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.03660000115633011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.01070000045001507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9929999709129333</v>
+        <v>0.9973</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.03220000118017197</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.009800000116229057</v>
+        <v>0.0302</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9710999727249146</v>
+        <v>0.9891</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9729999899864197</v>
+        <v>0.9982</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.006899999920278788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9783999919891357</v>
+        <v>0.9949</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9843999743461609</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.01970000006258488</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9447000026702881</v>
+        <v>0.9883</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01109999977052212</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9376999735832214</v>
+        <v>0.9974</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.02209999971091747</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.006200000178068876</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.02659999951720238</v>
+        <v>0.0062</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.0255999993532896</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9767000079154968</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9595999717712402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.01750000007450581</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.003299999982118607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9592999815940857</v>
+        <v>0.9931</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.03669999912381172</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9541000127792358</v>
+        <v>0.9959</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.01429999992251396</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.04879999905824661</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9502000212669373</v>
+        <v>0.9939</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9872000217437744</v>
+        <v>0.9841</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9824000000953674</v>
+        <v>0.9831</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.003599999938160181</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.004900000058114529</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9939000010490417</v>
+        <v>0.9961</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.0118000004440546</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.02280000038444996</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9904999732971191</v>
+        <v>0.9957</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.01549999974668026</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.03079999983310699</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.03009999915957451</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.0390000008046627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9760000109672546</v>
+        <v>0.9984</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.01630000025033951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.01930000074207783</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.008899999782443047</v>
+        <v>0.0167</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.02989999949932098</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.02170000039041042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.01669999957084656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9745000004768372</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.005200000014156103</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.9603000283241272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.4300000071525574</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.6283000111579895</v>
+        <v>0.9916</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.006899999920278788</v>
+        <v>0.2561</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.1118000000715256</v>
+        <v>0.0587</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.8522999882698059</v>
+        <v>0.4088</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.167600005865097</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.2700000107288361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.2506000101566315</v>
+        <v>0.0114</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.8127999901771545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.01379999984055758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.02899999916553497</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.8091999888420105</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.2098000049591064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.3111999928951263</v>
+        <v>0.0015</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.01009999960660934</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.04050000011920929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.02180000022053719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.09080000221729279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.7620000243186951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.08079999685287476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.09749999642372131</v>
+        <v>0.1394</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.6953999996185303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.852400004863739</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.9546999931335449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.402099996805191</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.9732999801635742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.03869999945163727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.01700000092387199</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.2874000072479248</v>
+        <v>0.7994</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.9487000107765198</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.01070000045001507</v>
+        <v>0.0044</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.2581999897956848</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.871399998664856</v>
+        <v>0.2197</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.7020999789237976</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.008799999952316284</v>
+        <v>0.0779</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.4835000038146973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.2804999947547913</v>
+        <v>0.0136</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.1460999995470047</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.5321999788284302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.03449999913573265</v>
+        <v>0.9994</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.04069999977946281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.6416000127792358</v>
+        <v>0.9229000000000001</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.5633999705314636</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.01710000075399876</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.1264999955892563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.7922999858856201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.9542000293731689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.6075999736785889</v>
+        <v>0.0117</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.4020000100135803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.1340000033378601</v>
+        <v>0.0799</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.01789999939501286</v>
+        <v>0.1608</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.239999994635582</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.131400004029274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.5390999913215637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.004999999888241291</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.7390000224113464</v>
+        <v>0.7669</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.1967000067234039</v>
+        <v>0.9766</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.2657000124454498</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>0.1102999970316887</v>
+        <v>0.0007</v>
       </c>
     </row>
   </sheetData>

--- a/q12/q12扩张概率.xlsx
+++ b/q12/q12扩张概率.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A160"/>
+  <dimension ref="A1:A161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,797 +442,802 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0002</v>
+        <v>0.0198999997228384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.008999999612569809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5086000000000001</v>
+        <v>0.9487000107765198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5086000000000001</v>
+        <v>0.01070000045001507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5293</v>
+        <v>0.9869999885559082</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.5293</v>
+        <v>0.01520000025629997</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0056</v>
+        <v>0.01400000043213367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9983</v>
+        <v>0.9743000268936157</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9945000000000001</v>
+        <v>0.9968000054359436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>0.03950000181794167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.0115</v>
+        <v>0.0255999993532896</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.01530000008642673</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9906</v>
+        <v>0.9595999717712402</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0002</v>
+        <v>0.02260000072419643</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9867</v>
+        <v>0.9833999872207642</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>0.01740000024437904</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9918</v>
+        <v>0.9927999973297119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9885</v>
+        <v>0.9868000149726868</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0519</v>
+        <v>0.01569999940693378</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0062</v>
+        <v>0.03860000148415565</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>0.009200000204145908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>0.03640000149607658</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.0002</v>
+        <v>0.03359999880194664</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.0181</v>
+        <v>0.01059999968856573</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9893</v>
+        <v>0.9868999719619751</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.0056</v>
+        <v>0.01480000000447035</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9839</v>
+        <v>0.954800009727478</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.0075</v>
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.0002</v>
+        <v>0.009499999694526196</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.0402</v>
+        <v>0.03299999982118607</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>0.006500000134110451</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9996</v>
+        <v>0.9869999885559082</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>0.9574000239372253</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.008200000000000001</v>
+        <v>0.003299999982118607</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.007699999958276749</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9727</v>
+        <v>0.9753000140190125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9997</v>
+        <v>0.9922000169754028</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9895</v>
+        <v>0.9653000235557556</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9898</v>
+        <v>0.9986000061035156</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.002</v>
+        <v>0.07400000095367432</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.0008</v>
+        <v>0.02490000054240227</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.002</v>
+        <v>0.004699999932199717</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9816</v>
+        <v>0.9901000261306763</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>0.01119999960064888</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.0269</v>
+        <v>0.01999999955296516</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.0516</v>
+        <v>0.002199999988079071</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.985</v>
+        <v>0.9631999731063843</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9943</v>
+        <v>0.9799000024795532</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.0001</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.0409</v>
+        <v>0.0210999995470047</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.0002</v>
+        <v>0.0130000002682209</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>0.03660000115633011</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>0.01070000045001507</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9973</v>
+        <v>0.9929999709129333</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.0191</v>
+        <v>0.03220000118017197</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.0302</v>
+        <v>0.009800000116229057</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9891</v>
+        <v>0.9710999727249146</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9982</v>
+        <v>0.9729999899864197</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>0.006899999920278788</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9949</v>
+        <v>0.9783999919891357</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1</v>
+        <v>0.9843999743461609</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.0002</v>
+        <v>0.01970000006258488</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9883</v>
+        <v>0.9447000026702881</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.003</v>
+        <v>0.01109999977052212</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9974</v>
+        <v>0.9376999735832214</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.0017</v>
+        <v>0.02209999971091747</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.0009</v>
+        <v>0.006200000178068876</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.0062</v>
+        <v>0.02659999951720238</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.0134</v>
+        <v>0.0255999993532896</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.982</v>
+        <v>0.9767000079154968</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>0.9595999717712402</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.0001</v>
+        <v>0.01750000007450581</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>0.003299999982118607</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9931</v>
+        <v>0.9592999815940857</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.0285</v>
+        <v>0.03669999912381172</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9959</v>
+        <v>0.9541000127792358</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.0122</v>
+        <v>0.01429999992251396</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.0001</v>
+        <v>0.04879999905824661</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9939</v>
+        <v>0.9502000212669373</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9841</v>
+        <v>0.9872000217437744</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9831</v>
+        <v>0.9824000000953674</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.0012</v>
+        <v>0.003599999938160181</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.004900000058114529</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9961</v>
+        <v>0.9939000010490417</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.0004</v>
+        <v>0.0118000004440546</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.0014</v>
+        <v>0.02280000038444996</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9957</v>
+        <v>0.9904999732971191</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.0003</v>
+        <v>0.01549999974668026</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.0015</v>
+        <v>0.03079999983310699</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.0197</v>
+        <v>0.03009999915957451</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>0.0390000008046627</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9984</v>
+        <v>0.9760000109672546</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>0.01630000025033951</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.0019</v>
+        <v>0.01930000074207783</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.0167</v>
+        <v>0.008899999782443047</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.0086</v>
+        <v>0.02989999949932098</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>0.02170000039041042</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0</v>
+        <v>0.01669999957084656</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1</v>
+        <v>0.9745000004768372</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.0001</v>
+        <v>0.005200000014156103</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>0.9603000283241272</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.094</v>
+        <v>0.4300000071525574</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.9916</v>
+        <v>0.6283000111579895</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.2561</v>
+        <v>0.006899999920278788</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.0587</v>
+        <v>0.1118000000715256</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.4088</v>
+        <v>0.8522999882698059</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.0131</v>
+        <v>0.167600005865097</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>0.2700000107288361</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.0114</v>
+        <v>0.2506000101566315</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0</v>
+        <v>0.8127999901771545</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0</v>
+        <v>0.01379999984055758</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.0012</v>
+        <v>0.02899999916553497</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.0005</v>
+        <v>0.8091999888420105</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>0.2098000049591064</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.0015</v>
+        <v>0.3111999928951263</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.9999</v>
+        <v>0.01009999960660934</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0</v>
+        <v>0.04050000011920929</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0</v>
+        <v>0.02180000022053719</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>0.09080000221729279</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>0.7620000243186951</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>0.08079999685287476</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.1394</v>
+        <v>0.09749999642372131</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>0.6953999996185303</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.0039</v>
+        <v>0.852400004863739</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0</v>
+        <v>0.9546999931335449</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.0017</v>
+        <v>0.402099996805191</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>0.9732999801635742</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>0.03869999945163727</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.0061</v>
+        <v>0.01700000092387199</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.7994</v>
+        <v>0.2874000072479248</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.0004</v>
+        <v>0.9487000107765198</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.0044</v>
+        <v>0.01070000045001507</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.0002</v>
+        <v>0.2581999897956848</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.2197</v>
+        <v>0.871399998664856</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.027</v>
+        <v>0.7020999789237976</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.0779</v>
+        <v>0.008799999952316284</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>0.4835000038146973</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.0136</v>
+        <v>0.2804999947547913</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.0007</v>
+        <v>0.1460999995470047</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>0.5321999788284302</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.9994</v>
+        <v>0.03449999913573265</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0</v>
+        <v>0.04069999977946281</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.9229000000000001</v>
+        <v>0.6416000127792358</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.0003</v>
+        <v>0.5633999705314636</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.0003</v>
+        <v>0.01710000075399876</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>0.1264999955892563</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>0.7922999858856201</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>0.9542000293731689</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.0117</v>
+        <v>0.6075999736785889</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0</v>
+        <v>0.4020000100135803</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.0799</v>
+        <v>0.1340000033378601</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.1608</v>
+        <v>0.01789999939501286</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.737</v>
+        <v>0.239999994635582</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0</v>
+        <v>0.131400004029274</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0</v>
+        <v>0.5390999913215637</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.0351</v>
+        <v>0.004999999888241291</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.7669</v>
+        <v>0.7390000224113464</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.9766</v>
+        <v>0.1967000067234039</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.0007</v>
+        <v>0.2657000124454498</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.1102999970316887</v>
       </c>
     </row>
   </sheetData>
